--- a/app/scripts/lectures/Lecture_Table.xlsx
+++ b/app/scripts/lectures/Lecture_Table.xlsx
@@ -58,13 +58,13 @@
     <t>CD222-Carlos Langworth-Hall 5</t>
   </si>
   <si>
+    <t>CD222-sec-Hall 5</t>
+  </si>
+  <si>
+    <t>CD222-lab-Hall 5</t>
+  </si>
+  <si>
     <t>CD222-Dr. Wendy Stokes-Hall 5</t>
-  </si>
-  <si>
-    <t>CD222-sec-Hall 5</t>
-  </si>
-  <si>
-    <t>CD222-lab-Hall 5</t>
   </si>
 </sst>
 </file>
@@ -434,19 +434,22 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>9</v>
       </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
@@ -457,16 +460,13 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/app/scripts/lectures/Lecture_Table.xlsx
+++ b/app/scripts/lectures/Lecture_Table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Period/Day</t>
   </si>
@@ -49,22 +49,105 @@
     <t>Thursday</t>
   </si>
   <si>
-    <t>Friday</t>
-  </si>
-  <si>
     <t>Saturday</t>
   </si>
   <si>
-    <t>CD222-Carlos Langworth-Hall 5</t>
-  </si>
-  <si>
-    <t>CD222-sec-Hall 5</t>
-  </si>
-  <si>
-    <t>CD222-lab-Hall 5</t>
-  </si>
-  <si>
-    <t>CD222-Dr. Wendy Stokes-Hall 5</t>
+    <t>GEN0806-sec-Hall 5</t>
+  </si>
+  <si>
+    <t>GEN0806-Cortney Heller-Hall 5</t>
+  </si>
+  <si>
+    <t>POW1804-sec-Hall 5</t>
+  </si>
+  <si>
+    <t>GEN1805-Prof. Virgie Braun II-Hall 5</t>
+  </si>
+  <si>
+    <t>MEC0811-sec-Hall 5</t>
+  </si>
+  <si>
+    <t>GEN0807-Jayde Predovic I-Hall 5</t>
+  </si>
+  <si>
+    <t>CIE1808-Lincoln Predovic-Hall 5</t>
+  </si>
+  <si>
+    <t>CIE2802-Lincoln Predovic-Hall 5</t>
+  </si>
+  <si>
+    <t>CIE3804-Lexi Cassin-Hall 5</t>
+  </si>
+  <si>
+    <t>GEN1809-sec-Hall 5</t>
+  </si>
+  <si>
+    <t>GEN0810-Carroll Hirthe DVM-Hall 5</t>
+  </si>
+  <si>
+    <t>CIE4818-sec-Hall 5</t>
+  </si>
+  <si>
+    <t>GEN0801-Percival Greenholt-Hall 5</t>
+  </si>
+  <si>
+    <t>CIE1808-Amy Cole-Hall 5</t>
+  </si>
+  <si>
+    <t>CIE3801-Araceli Hand-Hall 5</t>
+  </si>
+  <si>
+    <t>MEC0811-Carroll Hirthe DVM-Hall 5</t>
+  </si>
+  <si>
+    <t>GEN1801-sec-Hall 5</t>
+  </si>
+  <si>
+    <t>POW1804-Carroll Hirthe DVM-Hall 5</t>
+  </si>
+  <si>
+    <t>GEN1809-Ofelia O'Conner Jr.-Hall 5</t>
+  </si>
+  <si>
+    <t>CIE3804-lab-Hall 5</t>
+  </si>
+  <si>
+    <t>GEN0802-lab-Hall 5</t>
+  </si>
+  <si>
+    <t>CIE3801-sec-Hall 5</t>
+  </si>
+  <si>
+    <t>CIE2802-sec-Hall 5</t>
+  </si>
+  <si>
+    <t>GEN0801-sec-Hall 5</t>
+  </si>
+  <si>
+    <t>GEN1801-Adah Hyatt-Hall 1
+GEN2810-Miss Edna Schuppe-Hall 2
+CIE1808-sec-Hall 5</t>
+  </si>
+  <si>
+    <t>CIE1803-lab-Hall 1
+GEN0802-Jayde Predovic I-Hall 2
+POW1804-Danny Prohaska-Hall 5</t>
+  </si>
+  <si>
+    <t>CIE4818-Percival Greenholt-Hall 2
+CIE1803-Araceli Hand-Hall 5</t>
+  </si>
+  <si>
+    <t>GEN0801-Marcus Hegmann-Hall 2</t>
+  </si>
+  <si>
+    <t>GEN1801-Miss Myriam Huel-Hall 1
+GEN0807-sec-Hall 2
+CIE3801-Lexi Cassin-Hall 5</t>
+  </si>
+  <si>
+    <t>GEN0809-Marcus Hegmann-Hall 2
+GEN0810-Danny Prohaska-Hall 5</t>
   </si>
 </sst>
 </file>
@@ -396,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,47 +509,120 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>8</v>
       </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>9</v>
       </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>11</v>
       </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
       <c r="E7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>12</v>
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/app/scripts/lectures/Lecture_Table.xlsx
+++ b/app/scripts/lectures/Lecture_Table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Period/Day</t>
   </si>
@@ -52,102 +52,93 @@
     <t>Saturday</t>
   </si>
   <si>
-    <t>GEN0806-sec-Hall 5</t>
-  </si>
-  <si>
-    <t>GEN0806-Cortney Heller-Hall 5</t>
-  </si>
-  <si>
-    <t>POW1804-sec-Hall 5</t>
-  </si>
-  <si>
-    <t>GEN1805-Prof. Virgie Braun II-Hall 5</t>
-  </si>
-  <si>
-    <t>MEC0811-sec-Hall 5</t>
-  </si>
-  <si>
-    <t>GEN0807-Jayde Predovic I-Hall 5</t>
-  </si>
-  <si>
-    <t>CIE1808-Lincoln Predovic-Hall 5</t>
-  </si>
-  <si>
-    <t>CIE2802-Lincoln Predovic-Hall 5</t>
-  </si>
-  <si>
-    <t>CIE3804-Lexi Cassin-Hall 5</t>
-  </si>
-  <si>
-    <t>GEN1809-sec-Hall 5</t>
-  </si>
-  <si>
-    <t>GEN0810-Carroll Hirthe DVM-Hall 5</t>
-  </si>
-  <si>
-    <t>CIE4818-sec-Hall 5</t>
-  </si>
-  <si>
-    <t>GEN0801-Percival Greenholt-Hall 5</t>
-  </si>
-  <si>
-    <t>CIE1808-Amy Cole-Hall 5</t>
-  </si>
-  <si>
-    <t>CIE3801-Araceli Hand-Hall 5</t>
-  </si>
-  <si>
-    <t>MEC0811-Carroll Hirthe DVM-Hall 5</t>
-  </si>
-  <si>
-    <t>GEN1801-sec-Hall 5</t>
-  </si>
-  <si>
-    <t>POW1804-Carroll Hirthe DVM-Hall 5</t>
-  </si>
-  <si>
-    <t>GEN1809-Ofelia O'Conner Jr.-Hall 5</t>
-  </si>
-  <si>
-    <t>CIE3804-lab-Hall 5</t>
-  </si>
-  <si>
-    <t>GEN0802-lab-Hall 5</t>
-  </si>
-  <si>
-    <t>CIE3801-sec-Hall 5</t>
-  </si>
-  <si>
-    <t>CIE2802-sec-Hall 5</t>
-  </si>
-  <si>
-    <t>GEN0801-sec-Hall 5</t>
-  </si>
-  <si>
-    <t>GEN1801-Adah Hyatt-Hall 1
-GEN2810-Miss Edna Schuppe-Hall 2
-CIE1808-sec-Hall 5</t>
-  </si>
-  <si>
-    <t>CIE1803-lab-Hall 1
-GEN0802-Jayde Predovic I-Hall 2
-POW1804-Danny Prohaska-Hall 5</t>
-  </si>
-  <si>
-    <t>CIE4818-Percival Greenholt-Hall 2
-CIE1803-Araceli Hand-Hall 5</t>
-  </si>
-  <si>
-    <t>GEN0801-Marcus Hegmann-Hall 2</t>
-  </si>
-  <si>
-    <t>GEN1801-Miss Myriam Huel-Hall 1
-GEN0807-sec-Hall 2
-CIE3801-Lexi Cassin-Hall 5</t>
-  </si>
-  <si>
-    <t>GEN0809-Marcus Hegmann-Hall 2
-GEN0810-Danny Prohaska-Hall 5</t>
+    <t>CIE4818-Darwin Nicolas-Hall 2</t>
+  </si>
+  <si>
+    <t>GEN0807-Osvaldo Boyle PhD-Hall 1
+GEN1809-Laisha Schultz-Hall 2</t>
+  </si>
+  <si>
+    <t>GEN0801-Darwin Nicolas-Hall 2</t>
+  </si>
+  <si>
+    <t>MEC0811-Dr. Yvonne Treutel PhD-Hall 1
+GEN0801-sec-Hall 2</t>
+  </si>
+  <si>
+    <t>GEN1801-Prof. Eladio Franecki-Hall 1
+CIE1808-sec-Hall 2</t>
+  </si>
+  <si>
+    <t>POW1804-sec-Hall 1
+GEN0807-sec-Hall 2</t>
+  </si>
+  <si>
+    <t>CIE1803-Vernie Sporer-Hall 2</t>
+  </si>
+  <si>
+    <t>CIE2802-Destinee Feest-Hall 1</t>
+  </si>
+  <si>
+    <t>CIE4818-sec-Hall 2</t>
+  </si>
+  <si>
+    <t>CIE1803-lab-Hall 1</t>
+  </si>
+  <si>
+    <t>GEN1801-Prof. Eladio Franecki-Hall 1
+GEN0802-lab-Hall 2</t>
+  </si>
+  <si>
+    <t>GEN0809-Darwin Nicolas-Hall 1</t>
+  </si>
+  <si>
+    <t>POW1804-Dr. Yvonne Treutel PhD-Hall 2</t>
+  </si>
+  <si>
+    <t>POW1804-Dr. Yvonne Treutel PhD-Hall 1</t>
+  </si>
+  <si>
+    <t>GEN0810-Dr. Yvonne Treutel PhD-Hall 1</t>
+  </si>
+  <si>
+    <t>GEN1801-sec-Hall 1</t>
+  </si>
+  <si>
+    <t>MEC0811-sec-Hall 2</t>
+  </si>
+  <si>
+    <t>CIE3804-Vernie Sporer-Hall 1
+GEN0806-sec-Hall 2</t>
+  </si>
+  <si>
+    <t>GEN1805-Mr. Howard Willms II-Hall 1</t>
+  </si>
+  <si>
+    <t>GEN0801-Mr. Howard Willms II-Hall 2</t>
+  </si>
+  <si>
+    <t>GEN0802-Osvaldo Boyle PhD-Hall 2</t>
+  </si>
+  <si>
+    <t>CIE2802-sec-Hall 1</t>
+  </si>
+  <si>
+    <t>GEN2810-Mr. Howard Willms II-Hall 2</t>
+  </si>
+  <si>
+    <t>GEN1809-sec-Hall 1</t>
+  </si>
+  <si>
+    <t>CIE1808-Destinee Feest-Hall 2</t>
+  </si>
+  <si>
+    <t>CIE3804-lab-Hall 1
+GEN0810-Dr. Yvonne Treutel PhD-Hall 2</t>
+  </si>
+  <si>
+    <t>CIE1808-Destinee Feest-Hall 1
+GEN0806-Osvaldo Boyle PhD-Hall 2</t>
   </si>
 </sst>
 </file>
@@ -558,11 +549,8 @@
       <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -570,19 +558,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -590,19 +572,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -610,19 +592,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
         <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/app/scripts/lectures/Lecture_Table.xlsx
+++ b/app/scripts/lectures/Lecture_Table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Period/Day</t>
   </si>
@@ -52,93 +52,89 @@
     <t>Saturday</t>
   </si>
   <si>
+    <t>CIE2802-sec-Hall 2
+GEN1805-Mr. Howard Willms II-Hall 5</t>
+  </si>
+  <si>
+    <t>CIE1808-sec-Hall 1
+GEN1809-Laisha Schultz-Hall 5</t>
+  </si>
+  <si>
+    <t>GEN1801-Prof. Eladio Franecki-Hall 1</t>
+  </si>
+  <si>
+    <t>MEC0811-sec-Hall 1</t>
+  </si>
+  <si>
+    <t>GEN0806-sec-Hall 5</t>
+  </si>
+  <si>
+    <t>GEN0810-Dr. Yvonne Treutel PhD-Hall 5</t>
+  </si>
+  <si>
+    <t>GEN0802-lab-Hall 1
+MEC0811-Dr. Yvonne Treutel PhD-Hall 5</t>
+  </si>
+  <si>
+    <t>CIE2802-Destinee Feest-Hall 1
+POW1804-Dr. Yvonne Treutel PhD-Hall 2</t>
+  </si>
+  <si>
+    <t>CIE1803-Vernie Sporer-Hall 2
+GEN1801-Prof. Eladio Franecki-Hall 5</t>
+  </si>
+  <si>
+    <t>CIE3804-lab-Hall 1
+GEN0801-sec-Hall 2</t>
+  </si>
+  <si>
+    <t>GEN0801-Mr. Howard Willms II-Hall 2</t>
+  </si>
+  <si>
+    <t>GEN1809-sec-Hall 2</t>
+  </si>
+  <si>
+    <t>GEN0806-Osvaldo Boyle PhD-Hall 2</t>
+  </si>
+  <si>
+    <t>GEN0809-Darwin Nicolas-Hall 2
+CIE1808-Destinee Feest-Hall 5</t>
+  </si>
+  <si>
     <t>CIE4818-Darwin Nicolas-Hall 2</t>
   </si>
   <si>
-    <t>GEN0807-Osvaldo Boyle PhD-Hall 1
-GEN1809-Laisha Schultz-Hall 2</t>
-  </si>
-  <si>
-    <t>GEN0801-Darwin Nicolas-Hall 2</t>
-  </si>
-  <si>
-    <t>MEC0811-Dr. Yvonne Treutel PhD-Hall 1
-GEN0801-sec-Hall 2</t>
-  </si>
-  <si>
-    <t>GEN1801-Prof. Eladio Franecki-Hall 1
-CIE1808-sec-Hall 2</t>
-  </si>
-  <si>
-    <t>POW1804-sec-Hall 1
-GEN0807-sec-Hall 2</t>
-  </si>
-  <si>
-    <t>CIE1803-Vernie Sporer-Hall 2</t>
-  </si>
-  <si>
-    <t>CIE2802-Destinee Feest-Hall 1</t>
-  </si>
-  <si>
-    <t>CIE4818-sec-Hall 2</t>
-  </si>
-  <si>
-    <t>CIE1803-lab-Hall 1</t>
-  </si>
-  <si>
-    <t>GEN1801-Prof. Eladio Franecki-Hall 1
-GEN0802-lab-Hall 2</t>
-  </si>
-  <si>
-    <t>GEN0809-Darwin Nicolas-Hall 1</t>
-  </si>
-  <si>
-    <t>POW1804-Dr. Yvonne Treutel PhD-Hall 2</t>
-  </si>
-  <si>
-    <t>POW1804-Dr. Yvonne Treutel PhD-Hall 1</t>
-  </si>
-  <si>
-    <t>GEN0810-Dr. Yvonne Treutel PhD-Hall 1</t>
-  </si>
-  <si>
-    <t>GEN1801-sec-Hall 1</t>
-  </si>
-  <si>
-    <t>MEC0811-sec-Hall 2</t>
-  </si>
-  <si>
-    <t>CIE3804-Vernie Sporer-Hall 1
-GEN0806-sec-Hall 2</t>
-  </si>
-  <si>
-    <t>GEN1805-Mr. Howard Willms II-Hall 1</t>
-  </si>
-  <si>
-    <t>GEN0801-Mr. Howard Willms II-Hall 2</t>
-  </si>
-  <si>
-    <t>GEN0802-Osvaldo Boyle PhD-Hall 2</t>
-  </si>
-  <si>
-    <t>CIE2802-sec-Hall 1</t>
-  </si>
-  <si>
-    <t>GEN2810-Mr. Howard Willms II-Hall 2</t>
-  </si>
-  <si>
-    <t>GEN1809-sec-Hall 1</t>
-  </si>
-  <si>
     <t>CIE1808-Destinee Feest-Hall 2</t>
   </si>
   <si>
-    <t>CIE3804-lab-Hall 1
+    <t>GEN0801-Darwin Nicolas-Hall 5</t>
+  </si>
+  <si>
+    <t>CIE3804-Vernie Sporer-Hall 2</t>
+  </si>
+  <si>
+    <t>GEN0807-Osvaldo Boyle PhD-Hall 5</t>
+  </si>
+  <si>
+    <t>CIE4818-sec-Hall 1</t>
+  </si>
+  <si>
+    <t>POW1804-Dr. Yvonne Treutel PhD-Hall 2
+CIE1803-lab-Hall 5</t>
+  </si>
+  <si>
+    <t>GEN1801-sec-Hall 5</t>
+  </si>
+  <si>
+    <t>GEN0807-sec-Hall 1
 GEN0810-Dr. Yvonne Treutel PhD-Hall 2</t>
   </si>
   <si>
-    <t>CIE1808-Destinee Feest-Hall 1
-GEN0806-Osvaldo Boyle PhD-Hall 2</t>
+    <t>GEN2810-Mr. Howard Willms II-Hall 5</t>
+  </si>
+  <si>
+    <t>POW1804-sec-Hall 2
+GEN0802-Osvaldo Boyle PhD-Hall 5</t>
   </si>
 </sst>
 </file>
@@ -506,14 +502,8 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -521,19 +511,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -541,16 +531,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -558,13 +548,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
         <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -572,19 +562,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -592,19 +582,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
